--- a/causal_sims/stats_mock-up.xlsx
+++ b/causal_sims/stats_mock-up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uqkbairo/Documents/R/Causality-Presentation/causal_sims/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BAE918-923F-1B46-AAE1-3F675DFCBD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A5DEDB-7153-CD42-9E74-9E38444F214D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3740" yWindow="740" windowWidth="24980" windowHeight="17260" xr2:uid="{D5867907-E084-3D41-9B72-2FA3C7BA90FF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
   <si>
     <t>men</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>Assuming not math accepts much less AND bias against women in math</t>
+  </si>
+  <si>
+    <t>Berkley 1973</t>
+  </si>
+  <si>
+    <t>44% of men accepted</t>
+  </si>
+  <si>
+    <t>35% of women accepted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Women applied more to </t>
   </si>
 </sst>
 </file>
@@ -576,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9191CEB-CBFF-044D-B648-C59203C8936B}">
-  <dimension ref="B2:K36"/>
+  <dimension ref="B2:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,7 +604,7 @@
     <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -605,8 +617,11 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
       <c r="C3" s="5" t="s">
         <v>15</v>
@@ -619,8 +634,11 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="12"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -631,8 +649,11 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="12"/>
       <c r="C5" s="3" t="s">
         <v>2</v>
@@ -655,8 +676,11 @@
         <v>14</v>
       </c>
       <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
@@ -688,7 +712,7 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
@@ -717,7 +741,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="12"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -729,7 +753,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="12"/>
       <c r="C9" s="3" t="s">
         <v>4</v>
@@ -749,7 +773,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>0</v>
       </c>
@@ -775,7 +799,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>1</v>
       </c>
@@ -801,7 +825,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -813,7 +837,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -827,7 +851,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="12"/>
       <c r="C15" s="5" t="s">
         <v>16</v>
@@ -841,7 +865,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="12"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1051,7 +1075,7 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="12"/>
       <c r="C27" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1114,7 +1138,7 @@
       </c>
       <c r="G30" s="3">
         <f>100*C30*C34</f>
-        <v>56.25</v>
+        <v>37.5</v>
       </c>
       <c r="H30" s="3">
         <f>100*D30*D34</f>
@@ -1122,11 +1146,11 @@
       </c>
       <c r="I30" s="6">
         <f>SUM(G30:H30)/SUM(G30:H30,G34:H34)</f>
-        <v>0.625</v>
+        <v>0.4375</v>
       </c>
       <c r="J30" s="7">
         <f>I30/I31</f>
-        <v>1.6666666666666667</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="K30" s="4"/>
     </row>
@@ -1196,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D34" s="3">
         <v>0.25</v>
@@ -1207,7 +1231,7 @@
       </c>
       <c r="G34" s="3">
         <f>100*C30*(1-C34)</f>
-        <v>18.75</v>
+        <v>37.5</v>
       </c>
       <c r="H34" s="3">
         <f>100*D30*(1-D34)</f>
@@ -1257,6 +1281,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6:D7">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:D12">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:D19">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1268,7 +1316,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:D12">
+  <conditionalFormatting sqref="C22:D23">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1280,32 +1328,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:D19">
+  <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:D23">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1328,7 +1352,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:D35">
+  <conditionalFormatting sqref="C34:D36">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/causal_sims/stats_mock-up.xlsx
+++ b/causal_sims/stats_mock-up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uqkbairo/Documents/R/Causality-Presentation/causal_sims/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A5DEDB-7153-CD42-9E74-9E38444F214D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E833557-189C-6D4F-B884-198EE25EC641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3740" yWindow="740" windowWidth="24980" windowHeight="17260" xr2:uid="{D5867907-E084-3D41-9B72-2FA3C7BA90FF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
   <si>
     <t>men</t>
   </si>
@@ -98,7 +98,10 @@
     <t>35% of women accepted</t>
   </si>
   <si>
-    <t xml:space="preserve">Women applied more to </t>
+    <t>Assuming bias against women in math</t>
+  </si>
+  <si>
+    <t>Women applied more to programs with fewer spots/more difficult to get in</t>
   </si>
 </sst>
 </file>
@@ -590,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9191CEB-CBFF-044D-B648-C59203C8936B}">
   <dimension ref="B2:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -677,7 +680,7 @@
       </c>
       <c r="K5" s="4"/>
       <c r="O5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
@@ -1075,7 +1078,7 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="12"/>
       <c r="C27" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1127,10 +1130,10 @@
         <v>0</v>
       </c>
       <c r="C30" s="3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D30" s="3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
@@ -1142,15 +1145,15 @@
       </c>
       <c r="H30" s="3">
         <f>100*D30*D34</f>
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="I30" s="6">
         <f>SUM(G30:H30)/SUM(G30:H30,G34:H34)</f>
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="J30" s="7">
         <f>I30/I31</f>
-        <v>1.1666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K30" s="4"/>
     </row>
@@ -1220,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="3">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D34" s="3">
         <v>0.25</v>
@@ -1231,11 +1234,11 @@
       </c>
       <c r="G34" s="3">
         <f>100*C30*(1-C34)</f>
-        <v>37.5</v>
+        <v>12.5</v>
       </c>
       <c r="H34" s="3">
         <f>100*D30*(1-D34)</f>
-        <v>18.75</v>
+        <v>37.5</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -1281,7 +1284,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6:D7">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1293,6 +1296,94 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:D12">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:D19">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:D23">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FF0070C0"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="10"/>
+        <color theme="7"/>
+        <color theme="0"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF00B0F0"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:D31">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1304,7 +1395,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:D19">
+  <conditionalFormatting sqref="C36:D36">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1316,43 +1407,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:D23">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:D31">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:D36">
+  <conditionalFormatting sqref="C34:D35">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
